--- a/biology/Zoologie/Corytophanes_percarinatus/Corytophanes_percarinatus.xlsx
+++ b/biology/Zoologie/Corytophanes_percarinatus/Corytophanes_percarinatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corytophanes percarinatus est une espèce de sauriens de la famille des Corytophanidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corytophanes percarinatus est une espèce de sauriens de la famille des Corytophanidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Honduras, au Salvador, au Guatemala et au Mexique au Chiapas[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Honduras, au Salvador, au Guatemala et au Mexique au Chiapas.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Duméril, 1856 : Description des reptiles nouveaux ou imparfaitement connus de la collection du Muséum d'Histoire Naturelle, et remarques sur la classification et les charactéres des reptiles. Archives du Muséum d'Histoire Naturelle, Paris, vol. 8, p. 438-588 (texte intégral).</t>
         </is>
